--- a/loaded_influencer_data/jonakazani.ugc/jonakazani.ugc_video.xlsx
+++ b/loaded_influencer_data/jonakazani.ugc/jonakazani.ugc_video.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,10 +512,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1094</v>
+        <v>1102</v>
       </c>
       <c r="C2" t="n">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D2" t="n">
         <v>21</v>
@@ -524,7 +524,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -532,19 +532,19 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>14.62522851919561</v>
+        <v>14.60980036297641</v>
       </c>
       <c r="I2" t="n">
-        <v>12.70566727605119</v>
+        <v>12.70417422867514</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1.919561243144424</v>
+        <v>1.90562613430127</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2742230347349177</v>
+        <v>0.3629764065335753</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -564,10 +564,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>595</v>
+        <v>643</v>
       </c>
       <c r="C3" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D3" t="n">
         <v>2</v>
@@ -584,19 +584,19 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9.07563025210084</v>
+        <v>8.709175738724728</v>
       </c>
       <c r="I3" t="n">
-        <v>8.739495798319327</v>
+        <v>8.398133748055987</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3361344537815126</v>
+        <v>0.3110419906687403</v>
       </c>
       <c r="L3" t="n">
-        <v>1.512605042016807</v>
+        <v>1.399688958009331</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -616,7 +616,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8294</v>
+        <v>8304</v>
       </c>
       <c r="C4" t="n">
         <v>249</v>
@@ -636,19 +636,19 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3.520617313720762</v>
+        <v>3.516377649325626</v>
       </c>
       <c r="I4" t="n">
-        <v>3.002170243549554</v>
+        <v>2.998554913294798</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5184470701712081</v>
+        <v>0.5178227360308285</v>
       </c>
       <c r="L4" t="n">
-        <v>0.08439836026042923</v>
+        <v>0.08429672447013488</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -664,64 +664,60 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@jonakazani.ugc/video/7485403611615284486</t>
+          <t>https://www.tiktok.com/@jonakazani.ugc/photo/7489078190749584645</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>943</v>
+        <v>538</v>
       </c>
       <c r="C5" t="n">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>4</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>“I didn’t sign for this” 😭</t>
-        </is>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>8.271474019088016</v>
+        <v>9.293680297397769</v>
       </c>
       <c r="I5" t="n">
-        <v>8.165429480381761</v>
+        <v>8.921933085501859</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1060445387062566</v>
+        <v>0.3717472118959108</v>
       </c>
       <c r="L5" t="n">
-        <v>0.4241781548250266</v>
+        <v>0.9293680297397769</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-04-04</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@jonakazani.ugc/video/7484339380606340358</t>
+          <t>https://www.tiktok.com/@jonakazani.ugc/video/7488621389944245559</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1420</v>
+        <v>2374</v>
       </c>
       <c r="C6" t="n">
-        <v>79</v>
+        <v>237</v>
       </c>
       <c r="D6" t="n">
         <v>2</v>
@@ -730,148 +726,148 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>누가 나에게 돈을 지불합니까? 🤷🏻‍♀️</t>
+          <t>스프링 유닛🍋✨💅🏼 . . . @Bellezza Prive Blanes #uñas #uñas💅 #uñasblanes #salondeuñasblanes #salindeuñas</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5.704225352112676</v>
+        <v>10.06739679865206</v>
       </c>
       <c r="I6" t="n">
-        <v>5.563380281690141</v>
+        <v>9.983150800336984</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1408450704225352</v>
+        <v>0.08424599831508003</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>0.5897219882055602</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>2025-03-22</t>
+          <t>2025-04-03</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@jonakazani.ugc/video/7482374648185834757</t>
+          <t>https://www.tiktok.com/@jonakazani.ugc/video/7485403611615284486</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>687</v>
+        <v>1055</v>
       </c>
       <c r="C7" t="n">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="D7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>운전 시리즈 1부 📍안도라 🇦🇩</t>
+          <t>"나는 이것에 서명하지 않았다" 😭</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8.151382823871907</v>
+        <v>7.772511848341232</v>
       </c>
       <c r="I7" t="n">
-        <v>7.714701601164483</v>
+        <v>7.677725118483412</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.4366812227074235</v>
+        <v>0.09478672985781991</v>
       </c>
       <c r="L7" t="n">
-        <v>0.4366812227074235</v>
+        <v>0.6635071090047393</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-25</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@jonakazani.ugc/video/7481966339528084742</t>
+          <t>https://www.tiktok.com/@jonakazani.ugc/video/7484339380606340358</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>891</v>
+        <v>1515</v>
       </c>
       <c r="C8" t="n">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="D8" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Note: This is not an Wizz Ad 😅 . . . #plane #traveltiktok #abovethesky #aeroplanes #plane #traveltiktok</t>
+          <t>누가 나에게 돈을 지불합니까? 🤷🏻‍♀️</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>14.3658810325477</v>
+        <v>5.412541254125412</v>
       </c>
       <c r="I8" t="n">
-        <v>12.57014590347924</v>
+        <v>5.28052805280528</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>1.795735129068463</v>
+        <v>0.132013201320132</v>
       </c>
       <c r="L8" t="n">
-        <v>0.8978675645342313</v>
+        <v>0.066006600660066</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>2025-03-15</t>
+          <t>2025-03-22</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@jonakazani.ugc/video/7481237057579289862</t>
+          <t>https://www.tiktok.com/@jonakazani.ugc/video/7482374648185834757</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1948</v>
+        <v>728</v>
       </c>
       <c r="C9" t="n">
-        <v>139</v>
+        <v>55</v>
       </c>
       <c r="D9" t="n">
         <v>4</v>
@@ -884,47 +880,47 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>낭만적인 삶 ✨</t>
+          <t>운전 시리즈 1부 📍안도라 🇦🇩</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>7.340862422997947</v>
+        <v>8.104395604395604</v>
       </c>
       <c r="I9" t="n">
-        <v>7.13552361396304</v>
+        <v>7.554945054945055</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2053388090349076</v>
+        <v>0.5494505494505495</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1540041067761807</v>
+        <v>0.4120879120879121</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>2025-03-13</t>
+          <t>2025-03-16</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@jonakazani.ugc/video/7481034323106270469</t>
+          <t>https://www.tiktok.com/@jonakazani.ugc/video/7481966339528084742</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="C10" t="n">
-        <v>47</v>
+        <v>113</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -934,231 +930,239 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>10/10</t>
+          <t>운전 시리즈 1부 📍안도라 🇦🇩</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>5.037513397642015</v>
+        <v>13.8412017167382</v>
       </c>
       <c r="I10" t="n">
-        <v>5.037513397642015</v>
+        <v>12.1244635193133</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>1.716738197424893</v>
       </c>
       <c r="L10" t="n">
-        <v>0.857449088960343</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>2025-03-13</t>
+          <t>2025-03-15</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@jonakazani.ugc/photo/7479488796115913989</t>
+          <t>https://www.tiktok.com/@jonakazani.ugc/video/7481237057579289862</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1122</v>
+        <v>1948</v>
       </c>
       <c r="C11" t="n">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="D11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>2</v>
-      </c>
-      <c r="G11" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>낭만적인 삶 ✨</t>
+        </is>
+      </c>
       <c r="H11" t="n">
-        <v>7.575757575757576</v>
+        <v>7.340862422997947</v>
       </c>
       <c r="I11" t="n">
-        <v>7.040998217468805</v>
+        <v>7.13552361396304</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0.53475935828877</v>
+        <v>0.2053388090349076</v>
       </c>
       <c r="L11" t="n">
-        <v>0.17825311942959</v>
+        <v>0.1540041067761807</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-13</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@jonakazani.ugc/photo/7479150756080192774</t>
+          <t>https://www.tiktok.com/@jonakazani.ugc/video/7481034323106270469</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1447</v>
+        <v>933</v>
       </c>
       <c r="C12" t="n">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>3</v>
-      </c>
-      <c r="G12" t="inlineStr"/>
+        <v>8</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>10/10</t>
+        </is>
+      </c>
       <c r="H12" t="n">
-        <v>4.008293020041465</v>
+        <v>5.037513397642015</v>
       </c>
       <c r="I12" t="n">
-        <v>3.939184519695923</v>
+        <v>5.037513397642015</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0691085003455425</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0.2073255010366275</v>
+        <v>0.857449088960343</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>2025-03-08</t>
+          <t>2025-03-13</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@jonakazani.ugc/photo/7478640652213832966</t>
+          <t>https://www.tiktok.com/@jonakazani.ugc/photo/7479488796115913989</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>7320</v>
+        <v>1122</v>
       </c>
       <c r="C13" t="n">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="D13" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>0.9289617486338797</v>
+        <v>7.575757575757576</v>
       </c>
       <c r="I13" t="n">
-        <v>0.8879781420765027</v>
+        <v>7.040998217468805</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0.04098360655737705</v>
+        <v>0.53475935828877</v>
       </c>
       <c r="L13" t="n">
-        <v>0.08196721311475409</v>
+        <v>0.17825311942959</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>2025-03-06</t>
+          <t>2025-03-09</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@jonakazani.ugc/photo/7475428259736374534</t>
+          <t>https://www.tiktok.com/@jonakazani.ugc/photo/7479150756080192774</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>10200</v>
+        <v>1447</v>
       </c>
       <c r="C14" t="n">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="D14" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="n">
-        <v>0.8823529411764706</v>
+        <v>4.008293020041465</v>
       </c>
       <c r="I14" t="n">
-        <v>0.823529411764706</v>
+        <v>3.939184519695923</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0588235294117647</v>
+        <v>0.0691085003455425</v>
       </c>
       <c r="L14" t="n">
-        <v>0.06862745098039216</v>
+        <v>0.2073255010366275</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>2025-02-26</t>
+          <t>2025-03-08</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@jonakazani.ugc/video/7467222181609622790</t>
+          <t>https://www.tiktok.com/@jonakazani.ugc/photo/7478640652213832966</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5151</v>
+        <v>7320</v>
       </c>
       <c r="C15" t="n">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="D15" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1166,930 +1170,922 @@
       <c r="F15" t="n">
         <v>6</v>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>이번 겨울을 위한 나의 새로운 스킨케어 루틴! 바이오템의 새로운 아쿠아소스 하이드라 크림은 이 추운 날씨에 내 피부를 살릴 수 있었던 유일한 것입니다. 생체 선물</t>
-        </is>
-      </c>
+      <c r="G15" t="inlineStr"/>
       <c r="H15" t="n">
-        <v>1.1648223645894</v>
+        <v>0.9289617486338797</v>
       </c>
       <c r="I15" t="n">
-        <v>1.00951271597748</v>
+        <v>0.8879781420765027</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0.15530964861192</v>
+        <v>0.04098360655737705</v>
       </c>
       <c r="L15" t="n">
-        <v>0.11648223645894</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>2025-02-04</t>
+          <t>2025-03-06</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@jonakazani.ugc/video/7466770695423413510</t>
+          <t>https://www.tiktok.com/@jonakazani.ugc/photo/7475428259736374534</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1191</v>
+        <v>10200</v>
       </c>
       <c r="C16" t="n">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D16" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>8</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>안도라의 하얀 꿈 ❄️</t>
-        </is>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" t="n">
-        <v>7.472712006717044</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="I16" t="n">
-        <v>7.220822837951301</v>
+        <v>0.823529411764706</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0.2518891687657431</v>
+        <v>0.0588235294117647</v>
       </c>
       <c r="L16" t="n">
-        <v>0.6717044500419815</v>
+        <v>0.06862745098039216</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-02-26</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@jonakazani.ugc/video/7456845531126435077</t>
+          <t>https://www.tiktok.com/@jonakazani.ugc/video/7467222181609622790</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1181</v>
+        <v>5151</v>
       </c>
       <c r="C17" t="n">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D17" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>미스 프레스 🧦</t>
+          <t>이번 겨울을 위한 나의 새로운 스킨케어 루틴! 바이오템의 새로운 아쿠아소스 하이드라 크림은 이 추운 날씨에 내 피부를 살릴 수 있었던 유일한 것입니다. 생체 선물</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>5.419136325148179</v>
+        <v>1.1648223645894</v>
       </c>
       <c r="I17" t="n">
-        <v>5.249788314987299</v>
+        <v>1.00951271597748</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0.1693480101608806</v>
+        <v>0.15530964861192</v>
       </c>
       <c r="L17" t="n">
-        <v>0.4233700254022015</v>
+        <v>0.11648223645894</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>2025-01-07</t>
+          <t>2025-02-04</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@jonakazani.ugc/video/7456453132080450821</t>
+          <t>https://www.tiktok.com/@jonakazani.ugc/video/7466770695423413510</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1154</v>
+        <v>1191</v>
       </c>
       <c r="C18" t="n">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="D18" t="n">
+        <v>3</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
         <v>8</v>
       </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>5</v>
-      </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Klorane 의 선물 헤어 루틴에서 놓칠 수 없는 것은 세럼입니다. @Klorane España #serumanticaidaquinina</t>
+          <t>안도라의 하얀 꿈 ❄️</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>7.192374350086656</v>
+        <v>7.472712006717044</v>
       </c>
       <c r="I18" t="n">
-        <v>6.499133448873485</v>
+        <v>7.220822837951301</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0.6932409012131715</v>
+        <v>0.2518891687657431</v>
       </c>
       <c r="L18" t="n">
-        <v>0.4332755632582322</v>
+        <v>0.6717044500419815</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>2025-01-06</t>
+          <t>2025-02-02</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@jonakazani.ugc/video/7453848595645697285</t>
+          <t>https://www.tiktok.com/@jonakazani.ugc/video/7456845531126435077</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1328</v>
+        <v>1181</v>
       </c>
       <c r="C19" t="n">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="D19" t="n">
+        <v>2</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
         <v>5</v>
       </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>6</v>
-      </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>내 컬렉션에서 놓칠 수 없었던 내 새로운 최애 내 피부와 같은 피부를 가지고 있다면 슈퍼 BB 크림은 필수입니다. ✨</t>
+          <t>미스 프레스 🧦</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>7.078313253012049</v>
+        <v>5.419136325148179</v>
       </c>
       <c r="I19" t="n">
-        <v>6.701807228915663</v>
+        <v>5.249788314987299</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0.3765060240963856</v>
+        <v>0.1693480101608806</v>
       </c>
       <c r="L19" t="n">
-        <v>0.4518072289156626</v>
+        <v>0.4233700254022015</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>2024-12-29</t>
+          <t>2025-01-07</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@jonakazani.ugc/photo/7452433520175090950</t>
+          <t>https://www.tiktok.com/@jonakazani.ugc/video/7456453132080450821</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>737</v>
+        <v>1154</v>
       </c>
       <c r="C20" t="n">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="D20" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>2</v>
-      </c>
-      <c r="G20" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Klorane 의 선물 헤어 루틴에서 놓칠 수 없는 것은 세럼입니다. @Klorane España #serumanticaidaquinina</t>
+        </is>
+      </c>
       <c r="H20" t="n">
-        <v>8.141112618724559</v>
+        <v>7.192374350086656</v>
       </c>
       <c r="I20" t="n">
-        <v>7.598371777476255</v>
+        <v>6.499133448873485</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0.5427408412483039</v>
+        <v>0.6932409012131715</v>
       </c>
       <c r="L20" t="n">
-        <v>0.271370420624152</v>
+        <v>0.4332755632582322</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>2024-12-26</t>
+          <t>2025-01-06</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@jonakazani.ugc/video/7442683880739573048</t>
+          <t>https://www.tiktok.com/@jonakazani.ugc/video/7453848595645697285</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4200000</v>
+        <v>1328</v>
       </c>
       <c r="C21" t="n">
-        <v>22300</v>
+        <v>89</v>
       </c>
       <c r="D21" t="n">
-        <v>67</v>
+        <v>5</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>1814</v>
+        <v>6</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>내가 가장 좋아하는 CC Dull입니다. 😍@Erborian</t>
+          <t>내 컬렉션에서 놓칠 수 없었던 내 새로운 최애 내 피부와 같은 피부를 가지고 있다면 슈퍼 BB 크림은 필수입니다. ✨</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>0.532547619047619</v>
+        <v>7.078313253012049</v>
       </c>
       <c r="I21" t="n">
-        <v>0.530952380952381</v>
+        <v>6.701807228915663</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0.001595238095238095</v>
+        <v>0.3765060240963856</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0431904761904762</v>
+        <v>0.4518072289156626</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>2024-11-29</t>
+          <t>2024-12-29</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@jonakazani.ugc/photo/7435008322589166903</t>
+          <t>https://www.tiktok.com/@jonakazani.ugc/photo/7452433520175090950</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1846</v>
+        <v>737</v>
       </c>
       <c r="C22" t="n">
-        <v>113</v>
+        <v>56</v>
       </c>
       <c r="D22" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="n">
-        <v>6.663055254604551</v>
+        <v>8.141112618724559</v>
       </c>
       <c r="I22" t="n">
-        <v>6.121343445287107</v>
+        <v>7.598371777476255</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0.5417118093174431</v>
+        <v>0.5427408412483039</v>
       </c>
       <c r="L22" t="n">
-        <v>0.2708559046587216</v>
+        <v>0.271370420624152</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>2024-11-9</t>
+          <t>2024-12-26</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@jonakazani.ugc/photo/7433110700098194694</t>
+          <t>https://www.tiktok.com/@jonakazani.ugc/video/7442683880739573048</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1190</v>
+        <v>4200000</v>
       </c>
       <c r="C23" t="n">
-        <v>86</v>
+        <v>22300</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>7</v>
-      </c>
-      <c r="G23" t="inlineStr"/>
+        <v>1814</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>내가 가장 좋아하는 CC Dull입니다. 😍@Erborian</t>
+        </is>
+      </c>
       <c r="H23" t="n">
-        <v>7.3109243697479</v>
+        <v>0.532547619047619</v>
       </c>
       <c r="I23" t="n">
-        <v>7.226890756302522</v>
+        <v>0.530952380952381</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0.08403361344537816</v>
+        <v>0.001595238095238095</v>
       </c>
       <c r="L23" t="n">
-        <v>0.5882352941176471</v>
+        <v>0.0431904761904762</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>2024-11-4</t>
+          <t>2024-11-29</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@jonakazani.ugc/video/7432421559089810693</t>
+          <t>https://www.tiktok.com/@jonakazani.ugc/photo/7435008322589166903</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1052</v>
+        <v>1846</v>
       </c>
       <c r="C24" t="n">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D24" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>11</v>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>Just great 😍</t>
-        </is>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="G24" t="inlineStr"/>
       <c r="H24" t="n">
-        <v>12.73764258555133</v>
+        <v>6.663055254604551</v>
       </c>
       <c r="I24" t="n">
-        <v>11.40684410646388</v>
+        <v>6.121343445287107</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>1.330798479087452</v>
+        <v>0.5417118093174431</v>
       </c>
       <c r="L24" t="n">
-        <v>1.045627376425855</v>
+        <v>0.2708559046587216</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>2024-11-2</t>
+          <t>2024-11-9</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@jonakazani.ugc/photo/7430873281038650630</t>
+          <t>https://www.tiktok.com/@jonakazani.ugc/photo/7433110700098194694</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2150</v>
+        <v>1190</v>
       </c>
       <c r="C25" t="n">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="D25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>10</v>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>내 할인 코드에 댓글을 남깁니다. ➡️</t>
-        </is>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="G25" t="inlineStr"/>
       <c r="H25" t="n">
-        <v>3.720930232558139</v>
+        <v>7.3109243697479</v>
       </c>
       <c r="I25" t="n">
-        <v>3.581395348837209</v>
+        <v>7.226890756302522</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0.1395348837209302</v>
+        <v>0.08403361344537816</v>
       </c>
       <c r="L25" t="n">
-        <v>0.4651162790697674</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>2024-10-29</t>
+          <t>2024-11-4</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@jonakazani.ugc/video/7429702854132206853</t>
+          <t>https://www.tiktok.com/@jonakazani.ugc/video/7432421559089810693</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>865</v>
+        <v>1052</v>
       </c>
       <c r="C26" t="n">
-        <v>89</v>
+        <v>120</v>
       </c>
       <c r="D26" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>무료 ⛵️</t>
+          <t>Just great 😍</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>10.63583815028902</v>
+        <v>12.73764258555133</v>
       </c>
       <c r="I26" t="n">
-        <v>10.28901734104046</v>
+        <v>11.40684410646388</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0.3468208092485549</v>
+        <v>1.330798479087452</v>
       </c>
       <c r="L26" t="n">
-        <v>0.4624277456647399</v>
+        <v>1.045627376425855</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-11-2</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@jonakazani.ugc/photo/7429317818035784966</t>
+          <t>https://www.tiktok.com/@jonakazani.ugc/photo/7430873281038650630</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1400</v>
+        <v>2150</v>
       </c>
       <c r="C27" t="n">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="D27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>9</v>
-      </c>
-      <c r="G27" t="inlineStr"/>
+        <v>10</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>내 할인 코드에 댓글을 남깁니다. ➡️</t>
+        </is>
+      </c>
       <c r="H27" t="n">
-        <v>10.07142857142857</v>
+        <v>3.720930232558139</v>
       </c>
       <c r="I27" t="n">
-        <v>9.785714285714285</v>
+        <v>3.581395348837209</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.1395348837209302</v>
       </c>
       <c r="L27" t="n">
-        <v>0.6428571428571428</v>
+        <v>0.4651162790697674</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2024-10-29</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@jonakazani.ugc/video/7428700619466132742</t>
+          <t>https://www.tiktok.com/@jonakazani.ugc/video/7429702854132206853</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1216</v>
+        <v>865</v>
       </c>
       <c r="C28" t="n">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D28" t="n">
+        <v>3</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
         <v>4</v>
       </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>13</v>
-      </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>@bitherm's Life Plankton™ 세럼으로 여름이 지나면 피부를 되찾을 수 있습니다. 💙 #Preparateconmigo #Biotherm</t>
+          <t>무료 ⛵️</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>8.388157894736842</v>
+        <v>10.63583815028902</v>
       </c>
       <c r="I28" t="n">
-        <v>8.059210526315789</v>
+        <v>10.28901734104046</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0.3289473684210526</v>
+        <v>0.3468208092485549</v>
       </c>
       <c r="L28" t="n">
-        <v>1.069078947368421</v>
+        <v>0.4624277456647399</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-25</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@jonakazani.ugc/video/7428642047768153349</t>
+          <t>https://www.tiktok.com/@jonakazani.ugc/photo/7429317818035784966</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1330</v>
+        <v>1400</v>
       </c>
       <c r="C29" t="n">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D29" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>11</v>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>BAMBI Make Up this Halloween🦌 Graciasss @centreceline . . . #bambi #bambimakeup #bambimakeupaesthetic #bambilook #makeup #makeupbarcelona #makeupartistbarcelona #hairdresserbarcelona #peluqueria #peluqueriabarcelona #balayage #barcelonainfluencer #2024 #halloweenmakeup #halloweenmakeupideas</t>
-        </is>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G29" t="inlineStr"/>
       <c r="H29" t="n">
-        <v>11.95488721804511</v>
+        <v>10.07142857142857</v>
       </c>
       <c r="I29" t="n">
-        <v>10.75187969924812</v>
+        <v>9.785714285714285</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>1.203007518796993</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L29" t="n">
-        <v>0.8270676691729323</v>
+        <v>0.6428571428571428</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-24</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@jonakazani.ugc/video/7428561371270335750</t>
+          <t>https://www.tiktok.com/@jonakazani.ugc/video/7428700619466132742</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1118</v>
+        <v>1216</v>
       </c>
       <c r="C30" t="n">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="D30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>BAMBI는 이번 할로윈을 만회합니다🦌 Graciasss @receline . . . #bambi #bambimakeup #bambimakeupaesthetic</t>
+          <t>@bitherm's Life Plankton™ 세럼으로 여름이 지나면 피부를 되찾을 수 있습니다. 💙 #Preparateconmigo #Biotherm</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>6.887298747763864</v>
+        <v>8.388157894736842</v>
       </c>
       <c r="I30" t="n">
-        <v>6.708407871198569</v>
+        <v>8.059210526315789</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0.1788908765652952</v>
+        <v>0.3289473684210526</v>
       </c>
       <c r="L30" t="n">
-        <v>0.1788908765652952</v>
+        <v>1.069078947368421</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-23</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@jonakazani.ugc/video/7425766013272083718</t>
+          <t>https://www.tiktok.com/@jonakazani.ugc/video/7428642047768153349</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1116</v>
+        <v>1330</v>
       </c>
       <c r="C31" t="n">
-        <v>95</v>
+        <v>143</v>
       </c>
       <c r="D31" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>내가 가장 좋아하는 장인은 향, 높은 자연성, 높은 품질 및 수준의 에센셜 오일을 만들었습니다. Made in France🇫🇷@Alûstre</t>
+          <t>BAMBI Make Up this Halloween🦌 Graciasss @centreceline . . . #bambi #bambimakeup #bambimakeupaesthetic #bambilook #makeup #makeupbarcelona #makeupartistbarcelona #hairdresserbarcelona #peluqueria #peluqueriabarcelona #balayage #barcelonainfluencer #2024 #halloweenmakeup #halloweenmakeupideas</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>9.229390681003585</v>
+        <v>11.95488721804511</v>
       </c>
       <c r="I31" t="n">
-        <v>8.512544802867383</v>
+        <v>10.75187969924812</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0.7168458781362007</v>
+        <v>1.203007518796993</v>
       </c>
       <c r="L31" t="n">
-        <v>0.7168458781362007</v>
+        <v>0.8270676691729323</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>2024-10-15</t>
+          <t>2024-10-23</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@jonakazani.ugc/video/7424957760753716485</t>
+          <t>https://www.tiktok.com/@jonakazani.ugc/video/7428561371270335750</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1434</v>
+        <v>1118</v>
       </c>
       <c r="C32" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>내가 가장 좋아하는 장인은 향, 높은 자연성, 높은 품질 및 수준의 에센셜 오일을 만들었습니다. Made in France🇫🇷@Alûstre</t>
+          <t>BAMBI는 이번 할로윈을 만회합니다🦌 Graciasss @receline . . . #bambi #bambimakeup #bambimakeupaesthetic</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>5.299860529986053</v>
+        <v>6.887298747763864</v>
       </c>
       <c r="I32" t="n">
-        <v>5.090655509065551</v>
+        <v>6.708407871198569</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0.2092050209205021</v>
+        <v>0.1788908765652952</v>
       </c>
       <c r="L32" t="n">
-        <v>0.4184100418410042</v>
+        <v>0.1788908765652952</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>2024-10-13</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@jonakazani.ugc/photo/7424238970516638982</t>
+          <t>https://www.tiktok.com/@jonakazani.ugc/video/7425766013272083718</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1088</v>
+        <v>1116</v>
       </c>
       <c r="C33" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="D33" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>왜냐하면... #tossademar #costabrava #tossa #tossademarcostabrava #costabravabeach</t>
+          <t>내가 가장 좋아하는 장인은 향, 높은 자연성, 높은 품질 및 수준의 에센셜 오일을 만들었습니다. Made in France🇫🇷@Alûstre</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>10.29411764705882</v>
+        <v>9.229390681003585</v>
       </c>
       <c r="I33" t="n">
-        <v>10.11029411764706</v>
+        <v>8.512544802867383</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0.1838235294117647</v>
+        <v>0.7168458781362007</v>
       </c>
       <c r="L33" t="n">
-        <v>0.4595588235294118</v>
+        <v>0.7168458781362007</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>2024-10-11</t>
+          <t>2024-10-15</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@jonakazani.ugc/photo/7421876878098713861</t>
+          <t>https://www.tiktok.com/@jonakazani.ugc/video/7424957760753716485</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1005</v>
+        <v>1434</v>
       </c>
       <c r="C34" t="n">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D34" t="n">
         <v>3</v>
@@ -2098,247 +2094,247 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>5</v>
-      </c>
-      <c r="G34" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>내가 가장 좋아하는 장인은 향, 높은 자연성, 높은 품질 및 수준의 에센셜 오일을 만들었습니다. Made in France🇫🇷@Alûstre</t>
+        </is>
+      </c>
       <c r="H34" t="n">
-        <v>7.860696517412935</v>
+        <v>5.299860529986053</v>
       </c>
       <c r="I34" t="n">
-        <v>7.562189054726367</v>
+        <v>5.090655509065551</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0.2985074626865672</v>
+        <v>0.2092050209205021</v>
       </c>
       <c r="L34" t="n">
-        <v>0.4975124378109453</v>
+        <v>0.4184100418410042</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>2024-10-4</t>
+          <t>2024-10-13</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@jonakazani.ugc/video/7421275396743662853</t>
+          <t>https://www.tiktok.com/@jonakazani.ugc/photo/7424238970516638982</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>933</v>
+        <v>1088</v>
       </c>
       <c r="C35" t="n">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="D35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>내 슈퍼 글로시, 빠른 건조, 오래 지속되는, 바삭바삭하고 아름다운 색상, @Alstre의 천연 다이아몬드 매니큐어 주입</t>
+          <t>왜냐하면... #tossademar #costabrava #tossa #tossademarcostabrava #costabravabeach</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>8.467309753483388</v>
+        <v>10.29411764705882</v>
       </c>
       <c r="I35" t="n">
-        <v>8.360128617363344</v>
+        <v>10.11029411764706</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0.1071811361200429</v>
+        <v>0.1838235294117647</v>
       </c>
       <c r="L35" t="n">
-        <v>0.4287245444801715</v>
+        <v>0.4595588235294118</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>2024-10-3</t>
+          <t>2024-10-11</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@jonakazani.ugc/photo/7420172912398781701</t>
+          <t>https://www.tiktok.com/@jonakazani.ugc/photo/7421876878098713861</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1068</v>
+        <v>1005</v>
       </c>
       <c r="C36" t="n">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="D36" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>3</v>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>9월 말 해변의 날🌴 쿠폰 코드 "FATJANAK"을 사용하여 20% 할인 #berlook #berladies @berlook</t>
-        </is>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="G36" t="inlineStr"/>
       <c r="H36" t="n">
-        <v>9.45692883895131</v>
+        <v>7.860696517412935</v>
       </c>
       <c r="I36" t="n">
-        <v>8.333333333333332</v>
+        <v>7.562189054726367</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>1.123595505617978</v>
+        <v>0.2985074626865672</v>
       </c>
       <c r="L36" t="n">
-        <v>0.2808988764044944</v>
+        <v>0.4975124378109453</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>2024-9-30</t>
+          <t>2024-10-4</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@jonakazani.ugc/video/7419771062193245446</t>
+          <t>https://www.tiktok.com/@jonakazani.ugc/video/7421275396743662853</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1080</v>
+        <v>933</v>
       </c>
       <c r="C37" t="n">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>너무 차분하고 평화로워 ✨🧚🏻‍♀️</t>
+          <t>내 슈퍼 글로시, 빠른 건조, 오래 지속되는, 바삭바삭하고 아름다운 색상, @Alstre의 천연 다이아몬드 매니큐어 주입</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>7.12962962962963</v>
+        <v>8.467309753483388</v>
       </c>
       <c r="I37" t="n">
-        <v>6.944444444444445</v>
+        <v>8.360128617363344</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0.1851851851851852</v>
+        <v>0.1071811361200429</v>
       </c>
       <c r="L37" t="n">
-        <v>0.0925925925925926</v>
+        <v>0.4287245444801715</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>2024-9-29</t>
+          <t>2024-10-3</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@jonakazani.ugc/photo/7417932286135504134</t>
+          <t>https://www.tiktok.com/@jonakazani.ugc/photo/7420172912398781701</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>923</v>
+        <v>1068</v>
       </c>
       <c r="C38" t="n">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="D38" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>#superdry @SUPERDRY</t>
+          <t>9월 말 해변의 날🌴 쿠폰 코드 "FATJANAK"을 사용하여 20% 할인 #berlook #berladies @berlook</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>8.450704225352112</v>
+        <v>9.45692883895131</v>
       </c>
       <c r="I38" t="n">
-        <v>8.234019501625136</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0.2166847237269772</v>
+        <v>1.123595505617978</v>
       </c>
       <c r="L38" t="n">
-        <v>0.5417118093174431</v>
+        <v>0.2808988764044944</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>2024-9-24</t>
+          <t>2024-9-30</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@jonakazani.ugc/photo/7417549925677894918</t>
+          <t>https://www.tiktok.com/@jonakazani.ugc/video/7419771062193245446</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>870</v>
+        <v>1080</v>
       </c>
       <c r="C39" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="D39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -2348,47 +2344,47 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>사랑, 고요함, 스페인 골목으로 둘러싸인 선택 🧚🏻‍♀️✨</t>
+          <t>너무 차분하고 평화로워 ✨🧚🏻‍♀️</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>10.3448275862069</v>
+        <v>7.12962962962963</v>
       </c>
       <c r="I39" t="n">
-        <v>9.770114942528735</v>
+        <v>6.944444444444445</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0.5747126436781609</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="L39" t="n">
-        <v>0.1149425287356322</v>
+        <v>0.0925925925925926</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>2024-9-23</t>
+          <t>2024-9-29</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@jonakazani.ugc/video/7417182295116860678</t>
+          <t>https://www.tiktok.com/@jonakazani.ugc/photo/7417932286135504134</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1195</v>
+        <v>923</v>
       </c>
       <c r="C40" t="n">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="D40" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -2398,297 +2394,297 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>좋아하는 그늘 evahhhh gurlies💄 @lorealparis#lorealparismakeup</t>
+          <t>#superdry @SUPERDRY</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>9.9581589958159</v>
+        <v>8.450704225352112</v>
       </c>
       <c r="I40" t="n">
-        <v>9.037656903765692</v>
+        <v>8.234019501625136</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0.9205020920502093</v>
+        <v>0.2166847237269772</v>
       </c>
       <c r="L40" t="n">
-        <v>0.4184100418410042</v>
+        <v>0.5417118093174431</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>2024-9-22</t>
+          <t>2024-9-24</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@jonakazani.ugc/video/7416754800534113541</t>
+          <t>https://www.tiktok.com/@jonakazani.ugc/photo/7417549925677894918</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>945</v>
+        <v>870</v>
       </c>
       <c r="C41" t="n">
-        <v>118</v>
+        <v>85</v>
       </c>
       <c r="D41" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>골든 아워가 부르고 있다#lorealparismakeup @L’Oréal Paris</t>
+          <t>사랑, 고요함, 스페인 골목으로 둘러싸인 선택 🧚🏻‍♀️✨</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>14.07407407407407</v>
+        <v>10.3448275862069</v>
       </c>
       <c r="I41" t="n">
-        <v>12.48677248677249</v>
+        <v>9.770114942528735</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>1.587301587301587</v>
+        <v>0.5747126436781609</v>
       </c>
       <c r="L41" t="n">
-        <v>0.2116402116402117</v>
+        <v>0.1149425287356322</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>2024-9-21</t>
+          <t>2024-9-23</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@jonakazani.ugc/video/7414119432039025925</t>
+          <t>https://www.tiktok.com/@jonakazani.ugc/video/7417182295116860678</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1078</v>
+        <v>1195</v>
       </c>
       <c r="C42" t="n">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="D42" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>@SUPERDRY outfit checkkkk #superdry @SUPERDRY #superdry</t>
+          <t>좋아하는 그늘 evahhhh gurlies💄 @lorealparis#lorealparismakeup</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>9.183673469387756</v>
+        <v>9.9581589958159</v>
       </c>
       <c r="I42" t="n">
-        <v>8.62708719851577</v>
+        <v>9.037656903765692</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0.5565862708719851</v>
+        <v>0.9205020920502093</v>
       </c>
       <c r="L42" t="n">
-        <v>0.3710575139146568</v>
+        <v>0.4184100418410042</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>2024-9-13</t>
+          <t>2024-9-22</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@jonakazani.ugc/video/7413282084984245510</t>
+          <t>https://www.tiktok.com/@jonakazani.ugc/video/7416754800534113541</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1968</v>
+        <v>945</v>
       </c>
       <c r="C43" t="n">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="D43" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>콤피 &amp; 스타일리시@SUPERDRY #superdry</t>
+          <t>골든 아워가 부르고 있다#lorealparismakeup @L’Oréal Paris</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>7.774390243902439</v>
+        <v>14.07407407407407</v>
       </c>
       <c r="I43" t="n">
-        <v>6.859756097560976</v>
+        <v>12.48677248677249</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0.9146341463414633</v>
+        <v>1.587301587301587</v>
       </c>
       <c r="L43" t="n">
-        <v>0.1524390243902439</v>
+        <v>0.2116402116402117</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>2024-9-11</t>
+          <t>2024-9-21</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@jonakazani.ugc/video/7412976745814461701</t>
+          <t>https://www.tiktok.com/@jonakazani.ugc/video/7414119432039025925</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>836</v>
+        <v>1078</v>
       </c>
       <c r="C44" t="n">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="D44" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>치료 📚🌳</t>
+          <t>@SUPERDRY outfit checkkkk #superdry @SUPERDRY #superdry</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>7.416267942583731</v>
+        <v>9.183673469387756</v>
       </c>
       <c r="I44" t="n">
-        <v>7.177033492822966</v>
+        <v>8.62708719851577</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0.2392344497607655</v>
+        <v>0.5565862708719851</v>
       </c>
       <c r="L44" t="n">
-        <v>0.1196172248803828</v>
+        <v>0.3710575139146568</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>2024-9-10</t>
+          <t>2024-9-13</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@jonakazani.ugc/video/7412973079216786694</t>
+          <t>https://www.tiktok.com/@jonakazani.ugc/video/7413282084984245510</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>835</v>
+        <v>1968</v>
       </c>
       <c r="C45" t="n">
-        <v>87</v>
+        <v>135</v>
       </c>
       <c r="D45" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>September mornings 🌳📚</t>
+          <t>콤피 &amp; 스타일리시@SUPERDRY #superdry</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>12.21556886227545</v>
+        <v>7.774390243902439</v>
       </c>
       <c r="I45" t="n">
-        <v>10.41916167664671</v>
+        <v>6.859756097560976</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>1.796407185628742</v>
+        <v>0.9146341463414633</v>
       </c>
       <c r="L45" t="n">
-        <v>0.2395209580838323</v>
+        <v>0.1524390243902439</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>2024-9-10</t>
+          <t>2024-9-11</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@jonakazani.ugc/photo/7412727275801578757</t>
+          <t>https://www.tiktok.com/@jonakazani.ugc/video/7412976745814461701</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>946</v>
+        <v>836</v>
       </c>
       <c r="C46" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="D46" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -2696,21 +2692,25 @@
       <c r="F46" t="n">
         <v>1</v>
       </c>
-      <c r="G46" t="inlineStr"/>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>치료 📚🌳</t>
+        </is>
+      </c>
       <c r="H46" t="n">
-        <v>10.88794926004228</v>
+        <v>7.416267942583731</v>
       </c>
       <c r="I46" t="n">
-        <v>9.513742071881607</v>
+        <v>7.177033492822966</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>1.374207188160677</v>
+        <v>0.2392344497607655</v>
       </c>
       <c r="L46" t="n">
-        <v>0.105708245243129</v>
+        <v>0.1196172248803828</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -2724,200 +2724,246 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@jonakazani.ugc/video/7412259691545267462</t>
+          <t>https://www.tiktok.com/@jonakazani.ugc/video/7412973079216786694</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1031</v>
+        <v>835</v>
       </c>
       <c r="C47" t="n">
-        <v>130</v>
+        <v>87</v>
       </c>
       <c r="D47" t="n">
+        <v>15</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
         <v>2</v>
       </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
-        <v>5</v>
-      </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Paradise under the sky ✨</t>
+          <t>September mornings 🌳📚</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>12.80310378273521</v>
+        <v>12.21556886227545</v>
       </c>
       <c r="I47" t="n">
-        <v>12.60911736178467</v>
+        <v>10.41916167664671</v>
       </c>
       <c r="J47" t="n">
         <v>0</v>
       </c>
       <c r="K47" t="n">
-        <v>0.1939864209505335</v>
+        <v>1.796407185628742</v>
       </c>
       <c r="L47" t="n">
-        <v>0.4849660523763337</v>
+        <v>0.2395209580838323</v>
       </c>
       <c r="M47" t="n">
         <v>0</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>2024-9-8</t>
+          <t>2024-9-10</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@jonakazani.ugc/video/7411129220954361093</t>
+          <t>https://www.tiktok.com/@jonakazani.ugc/photo/7412727275801578757</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1407</v>
+        <v>946</v>
       </c>
       <c r="C48" t="n">
-        <v>194</v>
+        <v>90</v>
       </c>
       <c r="D48" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E48" t="n">
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>8</v>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>나는 사실 비가 별로 마음에 들지 않지만 비오는 날에는 밖이 좋다. ☔️</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G48" t="inlineStr"/>
       <c r="H48" t="n">
-        <v>14.8542999289268</v>
+        <v>10.88794926004228</v>
       </c>
       <c r="I48" t="n">
-        <v>13.78820184790334</v>
+        <v>9.513742071881607</v>
       </c>
       <c r="J48" t="n">
         <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>1.066098081023454</v>
+        <v>1.374207188160677</v>
       </c>
       <c r="L48" t="n">
-        <v>0.5685856432125089</v>
+        <v>0.105708245243129</v>
       </c>
       <c r="M48" t="n">
         <v>0</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>2024-9-5</t>
+          <t>2024-9-10</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@jonakazani.ugc/video/7410480872383728902</t>
+          <t>https://www.tiktok.com/@jonakazani.ugc/video/7412259691545267462</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1368</v>
+        <v>1031</v>
       </c>
       <c r="C49" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D49" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>단절은 새로운 치료법입니다 🧘🏻‍♀️</t>
+          <t>Paradise under the sky ✨</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>10.67251461988304</v>
+        <v>12.80310378273521</v>
       </c>
       <c r="I49" t="n">
-        <v>10.23391812865497</v>
+        <v>12.60911736178467</v>
       </c>
       <c r="J49" t="n">
         <v>0</v>
       </c>
       <c r="K49" t="n">
-        <v>0.4385964912280702</v>
+        <v>0.1939864209505335</v>
       </c>
       <c r="L49" t="n">
-        <v>0.07309941520467836</v>
+        <v>0.4849660523763337</v>
       </c>
       <c r="M49" t="n">
         <v>0</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>2024-9-4</t>
+          <t>2024-9-8</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@jonakazani.ugc/video/7409022070090173702</t>
+          <t>https://www.tiktok.com/@jonakazani.ugc/video/7411129220954361093</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>966</v>
+        <v>1407</v>
       </c>
       <c r="C50" t="n">
-        <v>95</v>
+        <v>194</v>
       </c>
       <c r="D50" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E50" t="n">
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>이번 여름이 많이 그리울거야 🫶🏻</t>
+          <t>나는 사실 비가 별로 마음에 들지 않지만 비오는 날에는 밖이 좋다. ☔️</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>10.24844720496894</v>
+        <v>14.8542999289268</v>
       </c>
       <c r="I50" t="n">
-        <v>9.834368530020704</v>
+        <v>13.78820184790334</v>
       </c>
       <c r="J50" t="n">
         <v>0</v>
       </c>
       <c r="K50" t="n">
-        <v>0.4140786749482402</v>
+        <v>1.066098081023454</v>
       </c>
       <c r="L50" t="n">
-        <v>0.3105590062111801</v>
+        <v>0.5685856432125089</v>
       </c>
       <c r="M50" t="n">
         <v>0</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>2024-8-31</t>
+          <t>2024-9-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@jonakazani.ugc/video/7410480872383728902</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>1368</v>
+      </c>
+      <c r="C51" t="n">
+        <v>140</v>
+      </c>
+      <c r="D51" t="n">
+        <v>6</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>단절은 새로운 치료법입니다 🧘🏻‍♀️</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10.67251461988304</v>
+      </c>
+      <c r="I51" t="n">
+        <v>10.23391812865497</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.4385964912280702</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0.07309941520467836</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>2024-9-4</t>
         </is>
       </c>
     </row>
